--- a/natmiOut/OldD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
+++ b/natmiOut/OldD0/LR-pairs_lrc2p/Vim-Cd44.xlsx
@@ -528,52 +528,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>757.141887395257</v>
+        <v>901.0264386666668</v>
       </c>
       <c r="H2">
-        <v>757.141887395257</v>
+        <v>2703.079316</v>
       </c>
       <c r="I2">
-        <v>0.449166408013579</v>
+        <v>0.4919546865560985</v>
       </c>
       <c r="J2">
-        <v>0.449166408013579</v>
+        <v>0.4919546865560985</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N2">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P2">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q2">
-        <v>62776.09228308457</v>
+        <v>268342.1763348418</v>
       </c>
       <c r="R2">
-        <v>62776.09228308457</v>
+        <v>2415079.587013576</v>
       </c>
       <c r="S2">
-        <v>0.308903803778636</v>
+        <v>0.4354859833548563</v>
       </c>
       <c r="T2">
-        <v>0.308903803778636</v>
+        <v>0.4354859833548563</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>757.141887395257</v>
+        <v>901.0264386666668</v>
       </c>
       <c r="H3">
-        <v>757.141887395257</v>
+        <v>2703.079316</v>
       </c>
       <c r="I3">
-        <v>0.449166408013579</v>
+        <v>0.4919546865560985</v>
       </c>
       <c r="J3">
-        <v>0.449166408013579</v>
+        <v>0.4919546865560985</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N3">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O3">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P3">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q3">
-        <v>18039.89683586443</v>
+        <v>21931.29377058372</v>
       </c>
       <c r="R3">
-        <v>18039.89683586443</v>
+        <v>197381.6439352535</v>
       </c>
       <c r="S3">
-        <v>0.08876934752872905</v>
+        <v>0.03559176259347793</v>
       </c>
       <c r="T3">
-        <v>0.08876934752872905</v>
+        <v>0.03559176259347794</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>757.141887395257</v>
+        <v>901.0264386666668</v>
       </c>
       <c r="H4">
-        <v>757.141887395257</v>
+        <v>2703.079316</v>
       </c>
       <c r="I4">
-        <v>0.449166408013579</v>
+        <v>0.4919546865560985</v>
       </c>
       <c r="J4">
-        <v>0.449166408013579</v>
+        <v>0.4919546865560985</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N4">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P4">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q4">
-        <v>10464.56986092126</v>
+        <v>12864.16530503065</v>
       </c>
       <c r="R4">
-        <v>10464.56986092126</v>
+        <v>115777.4877452758</v>
       </c>
       <c r="S4">
-        <v>0.05149325670621394</v>
+        <v>0.02087694060776426</v>
       </c>
       <c r="T4">
-        <v>0.05149325670621394</v>
+        <v>0.02087694060776426</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>20</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>613.194705630862</v>
+        <v>613.2682496666666</v>
       </c>
       <c r="H5">
-        <v>613.194705630862</v>
+        <v>1839.804749</v>
       </c>
       <c r="I5">
-        <v>0.3637712665570372</v>
+        <v>0.3348405513893978</v>
       </c>
       <c r="J5">
-        <v>0.3637712665570372</v>
+        <v>0.3348405513893978</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N5">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P5">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q5">
-        <v>50841.15417337431</v>
+        <v>182642.5171675715</v>
       </c>
       <c r="R5">
-        <v>50841.15417337431</v>
+        <v>1643782.654508143</v>
       </c>
       <c r="S5">
-        <v>0.2501752712136117</v>
+        <v>0.2964060934345145</v>
       </c>
       <c r="T5">
-        <v>0.2501752712136117</v>
+        <v>0.2964060934345145</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>613.194705630862</v>
+        <v>613.2682496666666</v>
       </c>
       <c r="H6">
-        <v>613.194705630862</v>
+        <v>1839.804749</v>
       </c>
       <c r="I6">
-        <v>0.3637712665570372</v>
+        <v>0.3348405513893978</v>
       </c>
       <c r="J6">
-        <v>0.3637712665570372</v>
+        <v>0.3348405513893978</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N6">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O6">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P6">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q6">
-        <v>14610.16675214567</v>
+        <v>14927.1603655873</v>
       </c>
       <c r="R6">
-        <v>14610.16675214567</v>
+        <v>134344.4432902857</v>
       </c>
       <c r="S6">
-        <v>0.0718925934928583</v>
+        <v>0.02422492505386818</v>
       </c>
       <c r="T6">
-        <v>0.0718925934928583</v>
+        <v>0.02422492505386818</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>613.194705630862</v>
+        <v>613.2682496666666</v>
       </c>
       <c r="H7">
-        <v>613.194705630862</v>
+        <v>1839.804749</v>
       </c>
       <c r="I7">
-        <v>0.3637712665570372</v>
+        <v>0.3348405513893978</v>
       </c>
       <c r="J7">
-        <v>0.3637712665570372</v>
+        <v>0.3348405513893978</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N7">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P7">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q7">
-        <v>8475.054599734989</v>
+        <v>8755.774305261422</v>
       </c>
       <c r="R7">
-        <v>8475.054599734989</v>
+        <v>78801.96874735279</v>
       </c>
       <c r="S7">
-        <v>0.04170340185056715</v>
+        <v>0.01420953290101519</v>
       </c>
       <c r="T7">
-        <v>0.04170340185056715</v>
+        <v>0.01420953290101519</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -900,52 +900,52 @@
         <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>315.32349616819</v>
+        <v>317.228546</v>
       </c>
       <c r="H8">
-        <v>315.32349616819</v>
+        <v>951.6856379999999</v>
       </c>
       <c r="I8">
-        <v>0.1870623254293838</v>
+        <v>0.1732047620545037</v>
       </c>
       <c r="J8">
-        <v>0.1870623254293838</v>
+        <v>0.1732047620545037</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>82.91192619001551</v>
+        <v>297.8183156666666</v>
       </c>
       <c r="N8">
-        <v>82.91192619001551</v>
+        <v>893.4549469999999</v>
       </c>
       <c r="O8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092672</v>
       </c>
       <c r="P8">
-        <v>0.687726860841511</v>
+        <v>0.8852156413092673</v>
       </c>
       <c r="Q8">
-        <v>26144.07844027461</v>
+        <v>94476.47125110569</v>
       </c>
       <c r="R8">
-        <v>26144.07844027461</v>
+        <v>850288.241259951</v>
       </c>
       <c r="S8">
-        <v>0.1286477858492633</v>
+        <v>0.1533235645198965</v>
       </c>
       <c r="T8">
-        <v>0.1286477858492633</v>
+        <v>0.1533235645198965</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -962,52 +962,52 @@
         <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>315.32349616819</v>
+        <v>317.228546</v>
       </c>
       <c r="H9">
-        <v>315.32349616819</v>
+        <v>951.6856379999999</v>
       </c>
       <c r="I9">
-        <v>0.1870623254293838</v>
+        <v>0.1732047620545037</v>
       </c>
       <c r="J9">
-        <v>0.1870623254293838</v>
+        <v>0.1732047620545037</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>23.8263093565274</v>
+        <v>24.34034433333333</v>
       </c>
       <c r="N9">
-        <v>23.8263093565274</v>
+        <v>73.021033</v>
       </c>
       <c r="O9">
-        <v>0.1976313142412142</v>
+        <v>0.07234764413494278</v>
       </c>
       <c r="P9">
-        <v>0.1976313142412142</v>
+        <v>0.0723476441349428</v>
       </c>
       <c r="Q9">
-        <v>7512.995167085077</v>
+        <v>7721.452042002673</v>
       </c>
       <c r="R9">
-        <v>7512.995167085077</v>
+        <v>69493.06837802405</v>
       </c>
       <c r="S9">
-        <v>0.03696937321962682</v>
+        <v>0.01253095648759667</v>
       </c>
       <c r="T9">
-        <v>0.03696937321962682</v>
+        <v>0.01253095648759667</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1024,52 +1024,52 @@
         <v>22</v>
       </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>315.32349616819</v>
+        <v>317.228546</v>
       </c>
       <c r="H10">
-        <v>315.32349616819</v>
+        <v>951.6856379999999</v>
       </c>
       <c r="I10">
-        <v>0.1870623254293838</v>
+        <v>0.1732047620545037</v>
       </c>
       <c r="J10">
-        <v>0.1870623254293838</v>
+        <v>0.1732047620545037</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>13.8211477070986</v>
+        <v>14.277234</v>
       </c>
       <c r="N10">
-        <v>13.8211477070986</v>
+        <v>42.831702</v>
       </c>
       <c r="O10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="P10">
-        <v>0.1146418249172748</v>
+        <v>0.04243671455578994</v>
       </c>
       <c r="Q10">
-        <v>4358.132616059293</v>
+        <v>4529.146182721764</v>
       </c>
       <c r="R10">
-        <v>4358.132616059293</v>
+        <v>40762.31564449587</v>
       </c>
       <c r="S10">
-        <v>0.0214451663604937</v>
+        <v>0.007350241047010488</v>
       </c>
       <c r="T10">
-        <v>0.0214451663604937</v>
+        <v>0.007350241047010489</v>
       </c>
     </row>
   </sheetData>
